--- a/KBS/data/Login.xlsx
+++ b/KBS/data/Login.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -35,12 +35,18 @@
   <si>
     <t>LCI</t>
   </si>
+  <si>
+    <t>Region Chairperson</t>
+  </si>
+  <si>
+    <t>2519731</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,15 +75,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -156,6 +168,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -190,6 +203,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,19 +379,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -388,7 +401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -396,6 +409,17 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -406,24 +430,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KBS/data/Login.xlsx
+++ b/KBS/data/Login.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
@@ -45,8 +45,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,16 +79,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3 3 2" xfId="1"/>
+    <cellStyle name="Normal 4 3 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -168,7 +179,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -203,7 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,18 +388,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -401,7 +412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -412,7 +423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -430,24 +441,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KBS/data/Login.xlsx
+++ b/KBS/data/Login.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>LCI</t>
-  </si>
-  <si>
-    <t>Region Chairperson</t>
-  </si>
-  <si>
-    <t>2519731</t>
   </si>
 </sst>
 </file>
@@ -382,7 +376,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -413,15 +409,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KBS/data/Login.xlsx
+++ b/KBS/data/Login.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -27,26 +27,26 @@
     <t>password0</t>
   </si>
   <si>
-    <t>4141201</t>
-  </si>
-  <si>
     <t>Roles</t>
   </si>
   <si>
-    <t>LCI</t>
-  </si>
-  <si>
-    <t>Region Chairperson</t>
-  </si>
-  <si>
-    <t>2519731</t>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>1958421</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>504539</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,7 +168,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -203,7 +202,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,20 +377,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -401,18 +401,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -430,24 +430,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KBS/data/Login.xlsx
+++ b/KBS/data/Login.xlsx
@@ -30,16 +30,16 @@
     <t>Roles</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>1958421</t>
-  </si>
-  <si>
-    <t>DG</t>
-  </si>
-  <si>
-    <t>504539</t>
+    <t>LCI</t>
+  </si>
+  <si>
+    <t>4141201</t>
+  </si>
+  <si>
+    <t>Region Chairperson</t>
+  </si>
+  <si>
+    <t>2519731</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/KBS/data/Login.xlsx
+++ b/KBS/data/Login.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Environment" sheetId="4" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Username</t>
   </si>
@@ -40,6 +41,30 @@
   </si>
   <si>
     <t>2519731</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Screenshotflag</t>
   </si>
 </sst>
 </file>
@@ -84,10 +109,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,10 +415,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -440,18 +531,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
@@ -462,4 +541,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KBS/data/Login.xlsx
+++ b/KBS/data/Login.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Username</t>
   </si>
@@ -37,12 +37,6 @@
     <t>LCI</t>
   </si>
   <si>
-    <t>Region Chairperson</t>
-  </si>
-  <si>
-    <t>2519731</t>
-  </si>
-  <si>
     <t>Browser</t>
   </si>
   <si>
@@ -66,12 +60,30 @@
   <si>
     <t>Screenshotflag</t>
   </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>504539</t>
+  </si>
+  <si>
+    <t>ClubPresident</t>
+  </si>
+  <si>
+    <t>357923</t>
+  </si>
+  <si>
+    <t>CoordinatingLion</t>
+  </si>
+  <si>
+    <t>95897</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +217,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -239,6 +252,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -414,62 +428,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -479,20 +493,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -503,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -514,14 +528,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -532,24 +568,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KBS/data/Login.xlsx
+++ b/KBS/data/Login.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Username</t>
   </si>
@@ -28,15 +28,9 @@
     <t>password0</t>
   </si>
   <si>
-    <t>4141201</t>
-  </si>
-  <si>
     <t>Roles</t>
   </si>
   <si>
-    <t>LCI</t>
-  </si>
-  <si>
     <t>Browser</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>504539</t>
   </si>
   <si>
-    <t>ClubPresident</t>
-  </si>
-  <si>
     <t>357923</t>
   </si>
   <si>
@@ -77,6 +68,27 @@
   </si>
   <si>
     <t>95897</t>
+  </si>
+  <si>
+    <t>3911332</t>
+  </si>
+  <si>
+    <t>MultipleDistrictOfficeAdmin</t>
+  </si>
+  <si>
+    <t>DistrictOfficeAdmin</t>
+  </si>
+  <si>
+    <t>SponsoringClubPresident</t>
+  </si>
+  <si>
+    <t>SponsoringClubSecretary</t>
+  </si>
+  <si>
+    <t>1958421</t>
+  </si>
+  <si>
+    <t>3381780</t>
   </si>
 </sst>
 </file>
@@ -121,9 +133,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -444,46 +455,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -494,11 +505,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -508,7 +517,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -519,32 +528,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -552,12 +561,34 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
     </row>

--- a/KBS/data/Login.xlsx
+++ b/KBS/data/Login.xlsx
@@ -1,16 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7875" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="15480" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="4" r:id="rId1"/>
     <sheet name="Login" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -94,8 +92,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,7 +226,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -263,7 +260,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,21 +435,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -464,7 +460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -475,7 +471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -486,7 +482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -504,18 +500,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -526,7 +522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -537,7 +533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -548,7 +544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -559,7 +555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -570,7 +566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -581,7 +577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -596,28 +592,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>